--- a/Елена Пухова.xlsx
+++ b/Елена Пухова.xlsx
@@ -52,9 +52,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,65 +438,623 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Декабрь 2021г.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Пухова Лена.</t>
+          <t>Пухова Елена.</t>
         </is>
       </c>
     </row>
     <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны поддонов РБ, 390-3 КК</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Пиком SHU, образец, №ТЗ 150-1ЮО</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образец короба из МГК, 371 КК</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Navigator, образец, стойка, № 137-4 ЮО</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Дека, изготовление игрушек, 39МК, Образец</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Диваж, Образцы, Образцы пластика и печати, ТЗ 223СФ</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Navigator, образец, стойка, № 137-3 ЮО</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Инситех, образцы, подложка, 36МК</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образец календаря для китайцев, 371 -3 КК</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>06-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>DEKA, образец к POPAI 2022, 19 Украли сахар изделие из картона , 39 АН</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Заказ 766 Сигналы Shu</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Сигналы к бланку 766 Нинель SHU</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>29-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Сигналы Кики белые подставки бланки 748, 750, 751 МК</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 731КК Градиент подарок на нг</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>09-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 726 СФ Диваж подставки к стойке</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Дека, акция, 2D, №ТЗ</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Инситех, Дизайн, Подложки, 41</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>КИКИ, М.П., Подставки, 29МК-1</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Кики, образцы,выкладка подставок в М.П. 34МК</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Пиком SHU, 3D. №ТЗ 150ЮО</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>27-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Феникс+, 3D, стойка,№ 141-3 ЮО</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Deka, 2D+3D, информирование клиентов о формовке, №20 ЮЛ</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>SHU, 3D, модули , № 149 ЧЯ-3</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Феникс+, 3D, стойка, № 145-1 ЮО</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Феникс+, 3D, стойка,№ 141 ЮО</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>07-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Феникс+, 3D, стойка,№ 141-4 ЮО</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Elemax, 3D, Оборудование №ТЗ 164 ЧЯ-2</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Феникс+, 3D, стойка,№ 141-1 ЮО</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>09-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Ригла, 3D, витрина, № 143 ЮО</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>2 КФ открытка на Новый год</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>03-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Бьютидрагс, 2Д, Макеты подставок, ТЗ 226СФ</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>БХК " Коломенский", 3D , контейнер, № 136-3 ЮО</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>БХК " Коломенский", 3D , контейнер, № 136-4 ЮО</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Serum GRN Дисплей + полка паразит, ТЗ 228СФ</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Диваж, Выложить в МП две баркеты, ТЗ 236СФ</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>28-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>DEKA, образец к POPAI 2022, 20 бытовая техника, 39 АН</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
+      <c r="C49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
+      <c r="C50" s="2" t="n"/>
+    </row>
     <row r="51"/>
     <row r="52"/>
     <row r="53"/>
